--- a/テスト仕様書/(演習1)テスト仕様書.xlsx
+++ b/テスト仕様書/(演習1)テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspacd/ex-intermediate-answer/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82930B57-BE7F-E940-923F-9D3D51B59E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5907D6-74AD-9345-9B76-F55F78FC57E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="16140" xr2:uid="{7F154582-5C1D-614D-A5D3-E61E0E98A811}"/>
+    <workbookView xWindow="640" yWindow="860" windowWidth="27900" windowHeight="16140" xr2:uid="{7F154582-5C1D-614D-A5D3-E61E0E98A811}"/>
   </bookViews>
   <sheets>
     <sheet name="演習１テスト仕様書" sheetId="4" r:id="rId1"/>
@@ -22,12 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1919,10 +1913,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・http://localhost:8080//ex-intermediate/team/listへアクセスする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>・ブラウザが起動していること
 ・「事前準備用SQL</t>
@@ -2226,6 +2216,10 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・http://localhost:8080/ex-intermediate/team/listへアクセスする</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2496,6 +2490,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,33 +2540,6 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2866,7 +2860,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E19" sqref="E19:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
@@ -2882,624 +2876,643 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="H1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="20">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="12">
+        <v>75</v>
+      </c>
+      <c r="H2" s="21">
         <v>44004</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="83" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="125" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="83" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="125" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
@@ -3516,45 +3529,26 @@
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="H29:H33"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書/(演習1)テスト仕様書.xlsx
+++ b/テスト仕様書/(演習1)テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5907D6-74AD-9345-9B76-F55F78FC57E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CCDEA2-3939-A545-828C-6E9289375506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="860" windowWidth="27900" windowHeight="16140" xr2:uid="{7F154582-5C1D-614D-A5D3-E61E0E98A811}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7F154582-5C1D-614D-A5D3-E61E0E98A811}"/>
   </bookViews>
   <sheets>
     <sheet name="演習１テスト仕様書" sheetId="4" r:id="rId1"/>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC185D8A-CC84-6745-8847-E8A850D58539}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E23"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
@@ -3560,7 +3560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC66152E-6C33-D545-B126-35E662E79CCE}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
@@ -3888,7 +3890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF8693A-8159-AD4A-AAC0-92AC9920543A}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
